--- a/mercury/src/test/resources/testdata/manifest-upload/empty-manifest.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/empty-manifest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940"/>
+    <workbookView xWindow="13080" yWindow="6740" windowWidth="24480" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -36,17 +36,17 @@
     <t>Visit</t>
   </si>
   <si>
-    <t>T/N</t>
+    <t>Specimen_Number</t>
   </si>
   <si>
-    <t>Sample ID</t>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -58,8 +58,15 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +85,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -91,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,6 +119,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +524,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -521,8 +537,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -537,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/mercury/src/test/resources/testdata/manifest-upload/empty-manifest.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/empty-manifest.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Material Type</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -536,7 +539,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -555,190 +558,216 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
